--- a/GUISeleniumFramework/testdata/SCM_Project.xlsx
+++ b/GUISeleniumFramework/testdata/SCM_Project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17895" windowHeight="5535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>Login Type</t>
   </si>
@@ -28,13 +29,184 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>tc_01</t>
+  </si>
+  <si>
+    <t>add manufacturer</t>
+  </si>
+  <si>
+    <t>edit profile</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>kaveriH</t>
+  </si>
+  <si>
+    <t>abcdef@gmail.com</t>
+  </si>
+  <si>
+    <t>8976543210</t>
+  </si>
+  <si>
+    <t>kavya</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Old Password</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>tc_02</t>
+  </si>
+  <si>
+    <t>add retailer</t>
+  </si>
+  <si>
+    <t>areacode</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>stutiR</t>
+  </si>
+  <si>
+    <t>MNGR (Maninagar)</t>
+  </si>
+  <si>
+    <t>7865943234</t>
+  </si>
+  <si>
+    <t>cvgfh@gmail.com</t>
+  </si>
+  <si>
+    <t>Maruthinagar_Bengalore</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Search By</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Search Option</t>
+  </si>
+  <si>
+    <t>tc_03</t>
+  </si>
+  <si>
+    <t>addUnit and Delete it</t>
+  </si>
+  <si>
+    <t>unit name</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>tc_o4</t>
+  </si>
+  <si>
+    <t>addCategory and edit it</t>
+  </si>
+  <si>
+    <t>Category name</t>
+  </si>
+  <si>
+    <t>Biscuits</t>
+  </si>
+  <si>
+    <t>JimJam</t>
+  </si>
+  <si>
+    <t>Treat</t>
+  </si>
+  <si>
+    <t>tc_04</t>
+  </si>
+  <si>
+    <t>addProduct</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Unit Type</t>
+  </si>
+  <si>
+    <t>Unit Category</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Wheat Buscuits</t>
+  </si>
+  <si>
+    <t>Cream</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t>Pounds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,13 +214,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -60,13 +264,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -359,22 +573,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -387,8 +606,235 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30.75" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
